--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SVMY\Downloads\index_trade_v2\motilal+angel1_v0.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256F85E-952A-4B5E-A9B8-066FF5B24B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB9300-A253-4113-BC5D-42AC312BB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -608,6 +608,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -653,13 +662,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,7 +999,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1108,7 @@
         <v>75</v>
       </c>
       <c r="K2" s="1">
-        <v>45362</v>
+        <v>45390</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -1114,7 +1129,7 @@
         <v>33</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1165,60 +1180,61 @@
         <v>33</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J28" si="1">I4*H4</f>
         <v>40</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>45335</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>5000</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="b">
+      <c r="R4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1226,107 +1242,108 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>40</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>45365</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>5000</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="b">
+      <c r="R5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
         <v>50</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <f t="shared" ref="J6" si="2">I6*H6</f>
         <v>50</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="11">
         <v>45365</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="9">
         <v>5000</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="b">
+      <c r="R6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1334,53 +1351,54 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K7" s="1">
-        <v>45385</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="5">
+        <v>45392</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>10000</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="b">
+      <c r="R7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1388,56 +1406,56 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
         <v>15</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <v>45364</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>10000</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R8" t="b">
+      <c r="R8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1445,53 +1463,54 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="11">
         <v>45386</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="9">
         <v>5000</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R9" t="b">
+      <c r="R9" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1499,53 +1518,54 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.40625</v>
       </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <v>45338</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R10" t="b">
+      <c r="R10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1553,56 +1573,56 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <v>45386</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>5000</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R11" t="b">
+      <c r="R11" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1610,53 +1630,54 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="5">
         <v>45324</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>4</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R12" t="b">
+      <c r="R12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1664,110 +1685,111 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K13" s="1">
-        <v>45373</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" s="8">
+        <v>45387</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>10000</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>3</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>4</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R13" t="b">
-        <v>0</v>
+      <c r="R13" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
         <v>75</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="11">
         <v>45327</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="9">
         <v>2500</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R14" t="b">
+      <c r="R14" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1775,53 +1797,54 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
         <v>15</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="11">
         <v>45327</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="9">
         <v>10000</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="9">
         <v>3</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="9">
         <v>4</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R15" t="b">
+      <c r="R15" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1851,7 +1874,7 @@
       <c r="I16" s="3">
         <v>15</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1873,67 +1896,67 @@
       <c r="P16" s="3">
         <v>2</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R16" t="b">
-        <v>1</v>
+      <c r="R16" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="10">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>75</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="9">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="11">
         <v>45320</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="9">
         <v>2500</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R17" t="b">
+      <c r="R17" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1941,53 +1964,54 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="10">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9">
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>15</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="11">
         <v>45320</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="9">
         <v>10000</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="9">
         <v>3</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="9">
         <v>4</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R18" t="b">
+      <c r="R18" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1995,53 +2019,54 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9">
         <v>40</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="11">
         <v>45321</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="9">
         <v>5000</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="O19" s="9">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R19" t="b">
+      <c r="R19" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2049,53 +2074,54 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="11">
         <v>45322</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="9">
         <v>10000</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R20" t="b">
+      <c r="R20" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2103,53 +2129,54 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="10">
         <v>0.40625</v>
       </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9">
         <v>100</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="9">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="11">
         <v>45324</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="9">
         <v>10000</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="9">
         <v>3</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="9">
         <v>4</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R21" t="b">
+      <c r="R21" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2157,53 +2184,54 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>0.3888888888888889</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>50</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <v>45323</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R22" t="b">
+      <c r="R22" s="3" t="b">
         <v>1</v>
       </c>
     </row>
